--- a/biology/Botanique/Craesus_septentrionalis/Craesus_septentrionalis.xlsx
+++ b/biology/Botanique/Craesus_septentrionalis/Craesus_septentrionalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Craesus septentrionalis (la tenthrède du bouleau) est une espèce d'insectes de l'ordre des hyménoptères, du sous-ordre des symphytes, de la famille des tenthrédinidés (tenthrèdes ou némates).
 Cette tenthrède est un ravageur par ses larves appelées « fausses-chenilles ». Ces larves possèdent 12 fausses-pattes (10 au maximum chez les chenilles de papillons) ; les larves de Craesus septentrionalis apprécient les feuilles de bouleaux ou d'aulnes.
@@ -513,7 +525,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Croesus septentrionalis Linnaeus, 1758.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Gamme d'hôtes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gamme d'hôtes de Craesus septentrionalis comprend diverses espèces d'arbres et arbustes : aulnes, frênes, noisetiers, bouleaux, charmes, peupliers, sorbiers, alisiers, érables, saules, etc.[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gamme d'hôtes de Craesus septentrionalis comprend diverses espèces d'arbres et arbustes : aulnes, frênes, noisetiers, bouleaux, charmes, peupliers, sorbiers, alisiers, érables, saules, etc..
 </t>
         </is>
       </c>
